--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>Test cases</t>
   </si>
@@ -111,6 +111,57 @@
   </si>
   <si>
     <t>Bude vynucena přestávka 29 minut</t>
+  </si>
+  <si>
+    <t>Přidání absence</t>
+  </si>
+  <si>
+    <t>Přidělí absenci - nemoc</t>
+  </si>
+  <si>
+    <t>Kliknutí na absence</t>
+  </si>
+  <si>
+    <t>Zvolení illness</t>
+  </si>
+  <si>
+    <t>Kliknutí na Save</t>
+  </si>
+  <si>
+    <t>Přidá se Notice Illness</t>
+  </si>
+  <si>
+    <t>Kontrola pracovní doby</t>
+  </si>
+  <si>
+    <t>Zkontroluje délku pracovní doby menší než 6 hod</t>
+  </si>
+  <si>
+    <t>Tick OUT nastavit na 12:00</t>
+  </si>
+  <si>
+    <t>Zmáčknout tlačítko Save</t>
+  </si>
+  <si>
+    <t>Pracovní doba "Work" bude 2 hodiny</t>
+  </si>
+  <si>
+    <t>Odečtení přestávky z pracovní doby</t>
+  </si>
+  <si>
+    <t>Spočítá pracovní dobu na základě práce-přestávka-práce</t>
+  </si>
+  <si>
+    <t>Kliknout na Add</t>
+  </si>
+  <si>
+    <t>Tick IN nastavit na 12:30</t>
+  </si>
+  <si>
+    <t>Tick OUT nastavit na 16:00</t>
+  </si>
+  <si>
+    <t>Pracovní doba bude 5:30</t>
   </si>
 </sst>
 </file>
@@ -466,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C33"/>
+  <dimension ref="A2:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,11 +776,224 @@
         <v>28</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A25:B25"/>
+  <mergeCells count="21">
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A27:B27"/>
@@ -739,6 +1003,12 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
